--- a/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/金币箱配置_goldbox.xlsx
+++ b/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/金币箱配置_goldbox.xlsx
@@ -12,20 +12,17 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28140" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="call" sheetId="1" r:id="rId1"/>
+    <sheet name="goldbox" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">call!$B$2:$F$1904</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">goldbox!$B$2:$F$1904</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="31">
-  <si>
-    <t>id</t>
-  </si>
   <si>
     <t>——</t>
     <phoneticPr fontId="13" type="noConversion"/>
@@ -39,46 +36,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>1|2|10,1|2|15,1|2|20</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|15,1|2|20,1|2|25</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|20,1|2|25,1|2|30</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|30,1|2|35,1|2|40</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|40,1|2|45,1|2|50</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|100,1|2|150,1|2|200</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|150,1|2|200,1|2|250</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|300,1|2|600,1|2|900</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|400,1|2|500,1|2|1000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|500,1|2|700,1|2|1200</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>召唤包
 类型：
 1-资源
@@ -89,68 +46,86 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>1|2|700,1|2|900,1|2|1400</t>
+    <t>player_lv</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>1|2|800,1|2|1000,1|2|1500</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70002|10,1|70002|15,1|70002|20</t>
   </si>
   <si>
-    <t>1|2|1000,1|2|1500,1|2|2000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70002|15,1|70002|20,1|70002|25</t>
   </si>
   <si>
-    <t>1|2|1200,1|2|1800,1|2|2200</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70002|20,1|70002|25,1|70002|30</t>
   </si>
   <si>
-    <t>1|2|2000,1|2|2300,1|2|2500</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70002|30,1|70002|35,1|70002|40</t>
   </si>
   <si>
-    <t>1|2|2500,1|2|2800,1|2|3000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70002|40,1|70002|45,1|70002|50</t>
   </si>
   <si>
-    <t>1|2|2800,1|2|3000,1|2|3300</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70002|100,1|70002|150,1|70002|200</t>
   </si>
   <si>
-    <t>1|2|3300,1|2|3500,1|2|3800</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70002|150,1|70002|200,1|70002|250</t>
   </si>
   <si>
-    <t>1|2|3500,1|2|4000,1|2|4500</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70002|300,1|70002|600,1|70002|900</t>
   </si>
   <si>
-    <t>1|2|4500,1|2|5000,1|2|5500</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70002|400,1|70002|500,1|70002|1000</t>
   </si>
   <si>
-    <t>1|2|5000,1|2|6000,1|2|7000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70002|500,1|70002|700,1|70002|1200</t>
   </si>
   <si>
-    <t>1|2|6000,1|2|7000,1|2|8000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70002|700,1|70002|900,1|70002|1400</t>
   </si>
   <si>
-    <t>1|2|7000,1|2|8000,1|2|9000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70002|800,1|70002|1000,1|70002|1500</t>
   </si>
   <si>
-    <t>1|2|9000,1|2|10000,1|2|11000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70002|1000,1|70002|1500,1|70002|2000</t>
   </si>
   <si>
-    <t>1|2|10000,1|2|11000,1|2|13000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70002|1200,1|70002|1800,1|70002|2200</t>
   </si>
   <si>
-    <t>1|2|12000,1|2|13000,1|2|14000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1|70002|2000,1|70002|2300,1|70002|2500</t>
+  </si>
+  <si>
+    <t>1|70002|2500,1|70002|2800,1|70002|3000</t>
+  </si>
+  <si>
+    <t>1|70002|2800,1|70002|3000,1|70002|3300</t>
+  </si>
+  <si>
+    <t>1|70002|3300,1|70002|3500,1|70002|3800</t>
+  </si>
+  <si>
+    <t>1|70002|3500,1|70002|4000,1|70002|4500</t>
+  </si>
+  <si>
+    <t>1|70002|4500,1|70002|5000,1|70002|5500</t>
+  </si>
+  <si>
+    <t>1|70002|5000,1|70002|6000,1|70002|7000</t>
+  </si>
+  <si>
+    <t>1|70002|6000,1|70002|7000,1|70002|8000</t>
+  </si>
+  <si>
+    <t>1|70002|7000,1|70002|8000,1|70002|9000</t>
+  </si>
+  <si>
+    <t>1|70002|9000,1|70002|10000,1|70002|11000</t>
+  </si>
+  <si>
+    <t>1|70002|10000,1|70002|11000,1|70002|13000</t>
+  </si>
+  <si>
+    <t>1|70002|12000,1|70002|13000,1|70002|14000</t>
   </si>
 </sst>
 </file>
@@ -812,12 +787,12 @@
   <dimension ref="A1:F1925"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="14"/>
+    <col min="1" max="1" width="17" style="14" customWidth="1"/>
     <col min="2" max="2" width="79.625" style="14" customWidth="1"/>
     <col min="3" max="3" width="15.25" style="14" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="14" customWidth="1"/>
@@ -830,10 +805,10 @@
     </row>
     <row r="2" spans="1:6" s="9" customFormat="1" ht="165" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -842,10 +817,10 @@
     </row>
     <row r="3" spans="1:6" s="10" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -854,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -865,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -876,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -887,7 +862,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -898,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5"/>
       <c r="E8" s="21"/>
@@ -908,7 +883,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="21"/>
@@ -918,7 +893,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="21"/>
@@ -928,7 +903,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="21"/>
@@ -938,7 +913,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="21"/>
@@ -948,7 +923,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5"/>
       <c r="E13" s="21"/>
@@ -1052,7 +1027,7 @@
       </c>
       <c r="C23" s="5"/>
       <c r="E23" s="21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
